--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2471093333333333</v>
+        <v>0.1688146666666667</v>
       </c>
       <c r="H2">
-        <v>0.741328</v>
+        <v>0.506444</v>
       </c>
       <c r="I2">
-        <v>0.02262716594355869</v>
+        <v>0.01579906680674538</v>
       </c>
       <c r="J2">
-        <v>0.02262716594355869</v>
+        <v>0.01579906680674538</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N2">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O2">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P2">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q2">
-        <v>0.2431614322542222</v>
+        <v>0.1281693844595556</v>
       </c>
       <c r="R2">
-        <v>2.188452890288</v>
+        <v>1.153524460136</v>
       </c>
       <c r="S2">
-        <v>0.00185550625078591</v>
+        <v>0.0008391372583099251</v>
       </c>
       <c r="T2">
-        <v>0.00185550625078591</v>
+        <v>0.0008391372583099249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2471093333333333</v>
+        <v>0.1688146666666667</v>
       </c>
       <c r="H3">
-        <v>0.741328</v>
+        <v>0.506444</v>
       </c>
       <c r="I3">
-        <v>0.02262716594355869</v>
+        <v>0.01579906680674538</v>
       </c>
       <c r="J3">
-        <v>0.02262716594355869</v>
+        <v>0.01579906680674538</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O3">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P3">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q3">
-        <v>0.6080217400817778</v>
+        <v>0.4153747897475555</v>
       </c>
       <c r="R3">
-        <v>5.472195660736</v>
+        <v>3.738373107728</v>
       </c>
       <c r="S3">
-        <v>0.004639667273204568</v>
+        <v>0.002719498604987168</v>
       </c>
       <c r="T3">
-        <v>0.004639667273204569</v>
+        <v>0.002719498604987168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2471093333333333</v>
+        <v>0.1688146666666667</v>
       </c>
       <c r="H4">
-        <v>0.741328</v>
+        <v>0.506444</v>
       </c>
       <c r="I4">
-        <v>0.02262716594355869</v>
+        <v>0.01579906680674538</v>
       </c>
       <c r="J4">
-        <v>0.02262716594355869</v>
+        <v>0.01579906680674538</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N4">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O4">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P4">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q4">
-        <v>0.09047908239999999</v>
+        <v>0.1719816860848889</v>
       </c>
       <c r="R4">
-        <v>0.8143117416</v>
+        <v>1.547835174764</v>
       </c>
       <c r="S4">
-        <v>0.0006904240586272426</v>
+        <v>0.001125980600978321</v>
       </c>
       <c r="T4">
-        <v>0.0006904240586272426</v>
+        <v>0.001125980600978321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2471093333333333</v>
+        <v>0.1688146666666667</v>
       </c>
       <c r="H5">
-        <v>0.741328</v>
+        <v>0.506444</v>
       </c>
       <c r="I5">
-        <v>0.02262716594355869</v>
+        <v>0.01579906680674538</v>
       </c>
       <c r="J5">
-        <v>0.02262716594355869</v>
+        <v>0.01579906680674538</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N5">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O5">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P5">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q5">
-        <v>1.992375752776889</v>
+        <v>1.670109607335111</v>
       </c>
       <c r="R5">
-        <v>17.931381774992</v>
+        <v>15.030986466016</v>
       </c>
       <c r="S5">
-        <v>0.01520333890502329</v>
+        <v>0.0109343678514621</v>
       </c>
       <c r="T5">
-        <v>0.01520333890502329</v>
+        <v>0.0109343678514621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2471093333333333</v>
+        <v>0.1688146666666667</v>
       </c>
       <c r="H6">
-        <v>0.741328</v>
+        <v>0.506444</v>
       </c>
       <c r="I6">
-        <v>0.02262716594355869</v>
+        <v>0.01579906680674538</v>
       </c>
       <c r="J6">
-        <v>0.02262716594355869</v>
+        <v>0.01579906680674538</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N6">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O6">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P6">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q6">
-        <v>0.03121962843377778</v>
+        <v>0.02750570517022222</v>
       </c>
       <c r="R6">
-        <v>0.280976655904</v>
+        <v>0.247551346532</v>
       </c>
       <c r="S6">
-        <v>0.0002382294559176843</v>
+        <v>0.0001800824910078643</v>
       </c>
       <c r="T6">
-        <v>0.0002382294559176842</v>
+        <v>0.0001800824910078642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>31.377543</v>
       </c>
       <c r="I7">
-        <v>0.9577202970374092</v>
+        <v>0.9788562962312237</v>
       </c>
       <c r="J7">
-        <v>0.9577202970374092</v>
+        <v>0.9788562962312237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N7">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O7">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P7">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q7">
-        <v>10.29208163795033</v>
+        <v>7.940937936204665</v>
       </c>
       <c r="R7">
-        <v>92.628734741553</v>
+        <v>71.46844142584199</v>
       </c>
       <c r="S7">
-        <v>0.07853639302819222</v>
+        <v>0.05199008262615764</v>
       </c>
       <c r="T7">
-        <v>0.07853639302819222</v>
+        <v>0.05199008262615764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>31.377543</v>
       </c>
       <c r="I8">
-        <v>0.9577202970374092</v>
+        <v>0.9788562962312237</v>
       </c>
       <c r="J8">
-        <v>0.9577202970374092</v>
+        <v>0.9788562962312237</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O8">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P8">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q8">
         <v>25.73520532659067</v>
@@ -948,10 +948,10 @@
         <v>231.616847939316</v>
       </c>
       <c r="S8">
-        <v>0.1963791457636419</v>
+        <v>0.1684908586466122</v>
       </c>
       <c r="T8">
-        <v>0.1963791457636419</v>
+        <v>0.1684908586466122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>31.377543</v>
       </c>
       <c r="I9">
-        <v>0.9577202970374092</v>
+        <v>0.9788562962312237</v>
       </c>
       <c r="J9">
-        <v>0.9577202970374092</v>
+        <v>0.9788562962312237</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N9">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O9">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P9">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q9">
-        <v>3.829629123149999</v>
+        <v>10.65539872195366</v>
       </c>
       <c r="R9">
-        <v>34.46666210835</v>
+        <v>95.89858849758299</v>
       </c>
       <c r="S9">
-        <v>0.02922297631791977</v>
+        <v>0.06976191785145665</v>
       </c>
       <c r="T9">
-        <v>0.02922297631791977</v>
+        <v>0.06976191785145665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>31.377543</v>
       </c>
       <c r="I10">
-        <v>0.9577202970374092</v>
+        <v>0.9788562962312237</v>
       </c>
       <c r="J10">
-        <v>0.9577202970374092</v>
+        <v>0.9788562962312237</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N10">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O10">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P10">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q10">
-        <v>84.32954893773633</v>
+        <v>103.4742953196613</v>
       </c>
       <c r="R10">
-        <v>758.965940439627</v>
+        <v>931.2686578769519</v>
       </c>
       <c r="S10">
-        <v>0.6434984517459763</v>
+        <v>0.6774561401400149</v>
       </c>
       <c r="T10">
-        <v>0.6434984517459763</v>
+        <v>0.677456140140015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>31.377543</v>
       </c>
       <c r="I11">
-        <v>0.9577202970374092</v>
+        <v>0.9788562962312237</v>
       </c>
       <c r="J11">
-        <v>0.9577202970374092</v>
+        <v>0.9788562962312237</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N11">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O11">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P11">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q11">
-        <v>1.321405954752667</v>
+        <v>1.704159683447666</v>
       </c>
       <c r="R11">
-        <v>11.892653592774</v>
+        <v>15.337437151029</v>
       </c>
       <c r="S11">
-        <v>0.01008333018167902</v>
+        <v>0.01115729696698228</v>
       </c>
       <c r="T11">
-        <v>0.01008333018167902</v>
+        <v>0.01115729696698228</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2146236666666667</v>
+        <v>0.057108</v>
       </c>
       <c r="H12">
-        <v>0.643871</v>
+        <v>0.171324</v>
       </c>
       <c r="I12">
-        <v>0.01965253701903217</v>
+        <v>0.005344636962031035</v>
       </c>
       <c r="J12">
-        <v>0.01965253701903217</v>
+        <v>0.005344636962031035</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N12">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O12">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P12">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q12">
-        <v>0.2111947674267778</v>
+        <v>0.04335818298399999</v>
       </c>
       <c r="R12">
-        <v>1.900752906841</v>
+        <v>0.390223646856</v>
       </c>
       <c r="S12">
-        <v>0.001611576340297108</v>
+        <v>0.000283870184349483</v>
       </c>
       <c r="T12">
-        <v>0.001611576340297108</v>
+        <v>0.000283870184349483</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2146236666666667</v>
+        <v>0.057108</v>
       </c>
       <c r="H13">
-        <v>0.643871</v>
+        <v>0.171324</v>
       </c>
       <c r="I13">
-        <v>0.01965253701903217</v>
+        <v>0.005344636962031035</v>
       </c>
       <c r="J13">
-        <v>0.01965253701903217</v>
+        <v>0.005344636962031035</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O13">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P13">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q13">
-        <v>0.5280895444502222</v>
+        <v>0.140516366032</v>
       </c>
       <c r="R13">
-        <v>4.752805900052</v>
+        <v>1.264647294288</v>
       </c>
       <c r="S13">
-        <v>0.004029723964109677</v>
+        <v>0.0009199741313962089</v>
       </c>
       <c r="T13">
-        <v>0.004029723964109678</v>
+        <v>0.0009199741313962089</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2146236666666667</v>
+        <v>0.057108</v>
       </c>
       <c r="H14">
-        <v>0.643871</v>
+        <v>0.171324</v>
       </c>
       <c r="I14">
-        <v>0.01965253701903217</v>
+        <v>0.005344636962031035</v>
       </c>
       <c r="J14">
-        <v>0.01965253701903217</v>
+        <v>0.005344636962031035</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N14">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O14">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P14">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q14">
-        <v>0.07858445554999999</v>
+        <v>0.058179365116</v>
       </c>
       <c r="R14">
-        <v>0.7072600999499999</v>
+        <v>0.523614286044</v>
       </c>
       <c r="S14">
-        <v>0.0005996590295420939</v>
+        <v>0.0003809058859064574</v>
       </c>
       <c r="T14">
-        <v>0.0005996590295420939</v>
+        <v>0.0003809058859064574</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2146236666666667</v>
+        <v>0.057108</v>
       </c>
       <c r="H15">
-        <v>0.643871</v>
+        <v>0.171324</v>
       </c>
       <c r="I15">
-        <v>0.01965253701903217</v>
+        <v>0.005344636962031035</v>
       </c>
       <c r="J15">
-        <v>0.01965253701903217</v>
+        <v>0.005344636962031035</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N15">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O15">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P15">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q15">
-        <v>1.730452604402111</v>
+        <v>0.5649782767039999</v>
       </c>
       <c r="R15">
-        <v>15.574073439619</v>
+        <v>5.084804490336</v>
       </c>
       <c r="S15">
-        <v>0.01320466652293755</v>
+        <v>0.003698966989013382</v>
       </c>
       <c r="T15">
-        <v>0.01320466652293755</v>
+        <v>0.003698966989013382</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2146236666666667</v>
+        <v>0.057108</v>
       </c>
       <c r="H16">
-        <v>0.643871</v>
+        <v>0.171324</v>
       </c>
       <c r="I16">
-        <v>0.01965253701903217</v>
+        <v>0.005344636962031035</v>
       </c>
       <c r="J16">
-        <v>0.01965253701903217</v>
+        <v>0.005344636962031035</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N16">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O16">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P16">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q16">
-        <v>0.02711541096422222</v>
+        <v>0.009304853908</v>
       </c>
       <c r="R16">
-        <v>0.244038698678</v>
+        <v>0.083743685172</v>
       </c>
       <c r="S16">
-        <v>0.0002069111621457375</v>
+        <v>6.091977136550404E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002069111621457375</v>
+        <v>6.091977136550404E-05</v>
       </c>
     </row>
   </sheetData>
